--- a/Data/g11.9.xlsx
+++ b/Data/g11.9.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B684140-47B4-4F93-9C5A-79F774B2AC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A8FB15-D325-44BB-A5C3-E42A72AEEE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g11.9" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,7 +521,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -905,223 +905,223 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2010</v>
+        <v>40816</v>
       </c>
       <c r="B2" s="1">
-        <v>712.21492673402395</v>
+        <v>239.8890918198565</v>
       </c>
       <c r="C2" s="1">
-        <v>318.8943448616817</v>
+        <v>220.24823461320381</v>
       </c>
       <c r="D2" s="1">
-        <v>144.82122166282318</v>
+        <v>14.447074297902599</v>
       </c>
       <c r="E2" s="1">
-        <v>1175.9304932585289</v>
+        <v>474.5844007309629</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2011</v>
+        <v>41182</v>
       </c>
       <c r="B3" s="1">
-        <v>121.75069729385118</v>
+        <v>195.0309780261266</v>
       </c>
       <c r="C3" s="1">
-        <v>250.46292485009096</v>
+        <v>304.2693837266757</v>
       </c>
       <c r="D3" s="1">
-        <v>430.7969915651359</v>
+        <v>8.5172113222631207</v>
       </c>
       <c r="E3" s="1">
-        <v>803.01061370907792</v>
+        <v>507.81757307506541</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2012</v>
+        <v>41547</v>
       </c>
       <c r="B4" s="1">
-        <v>589.11728177412112</v>
+        <v>-14.699067618251346</v>
       </c>
       <c r="C4" s="1">
-        <v>360.46839443047259</v>
+        <v>234.35071452721741</v>
       </c>
       <c r="D4" s="1">
-        <v>81.320145817025036</v>
+        <v>-28.599272865945551</v>
       </c>
       <c r="E4" s="1">
-        <v>1030.9058220216184</v>
+        <v>191.05237404302051</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2013</v>
+        <v>41912</v>
       </c>
       <c r="B5" s="1">
-        <v>-239.25383512563593</v>
+        <v>-412.74994654988103</v>
       </c>
       <c r="C5" s="1">
-        <v>323.43385470423732</v>
+        <v>224.04280647608536</v>
       </c>
       <c r="D5" s="1">
-        <v>2.8167472787840819</v>
+        <v>159.7779401013828</v>
       </c>
       <c r="E5" s="1">
-        <v>86.996766857385495</v>
+        <v>-28.929199972412874</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2014</v>
+        <v>42277</v>
       </c>
       <c r="B6" s="1">
-        <v>-181.80700834511535</v>
+        <v>432.70105978629772</v>
       </c>
       <c r="C6" s="1">
-        <v>300.22634383944273</v>
+        <v>266.27757525310625</v>
       </c>
       <c r="D6" s="1">
-        <v>215.66160695196385</v>
+        <v>591.21038404956835</v>
       </c>
       <c r="E6" s="1">
-        <v>334.08094244629126</v>
+        <v>1290.1890190889724</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2015</v>
+        <v>42643</v>
       </c>
       <c r="B7" s="1">
-        <v>604.69142060060028</v>
+        <v>137.33185378059758</v>
       </c>
       <c r="C7" s="1">
-        <v>374.59831660052913</v>
+        <v>274.67789034068295</v>
       </c>
       <c r="D7" s="1">
-        <v>550.83156570973256</v>
+        <v>1237.2773169587701</v>
       </c>
       <c r="E7" s="1">
-        <v>1530.1213029108619</v>
+        <v>1649.2870610800505</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2016</v>
+        <v>43008</v>
       </c>
       <c r="B8" s="1">
-        <v>291.96238526289335</v>
+        <v>-874.2294138262082</v>
       </c>
       <c r="C8" s="1">
-        <v>330.0827468433946</v>
+        <v>196.33205755767355</v>
       </c>
       <c r="D8" s="1">
-        <v>1159.783532822413</v>
+        <v>-585.40044837138896</v>
       </c>
       <c r="E8" s="1">
-        <v>1781.8286649287006</v>
+        <v>-1263.2978046399235</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2017</v>
+        <v>43373</v>
       </c>
       <c r="B9" s="1">
-        <v>-573.10614747196132</v>
+        <v>547.71937948598304</v>
       </c>
       <c r="C9" s="1">
-        <v>241.24131753334709</v>
+        <v>199.21655750978803</v>
       </c>
       <c r="D9" s="1">
-        <v>-488.9745548016254</v>
+        <v>-122.83383262001995</v>
       </c>
       <c r="E9" s="1">
-        <v>-820.83938474023967</v>
+        <v>624.10210437575108</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2018</v>
+        <v>43738</v>
       </c>
       <c r="B10" s="1">
-        <v>682.37632849796375</v>
+        <v>182.2331408862365</v>
       </c>
       <c r="C10" s="1">
-        <v>249.55266819066733</v>
+        <v>182.742385376627</v>
       </c>
       <c r="D10" s="1">
-        <v>-144.393019344745</v>
+        <v>435.21307259997178</v>
       </c>
       <c r="E10" s="1">
-        <v>787.5359773438862</v>
+        <v>800.18859886283531</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2019</v>
+        <v>44104</v>
       </c>
       <c r="B11" s="1">
-        <v>-92.093253362154002</v>
+        <v>705.47815715598517</v>
       </c>
       <c r="C11" s="1">
-        <v>227.08142190686519</v>
+        <v>117.77661656406961</v>
       </c>
       <c r="D11" s="1">
-        <v>-2066.6344227996797</v>
+        <v>1314.6788939662877</v>
       </c>
       <c r="E11" s="1">
-        <v>-1931.6462542549682</v>
+        <v>2137.9336676863422</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2020</v>
+        <v>44469</v>
       </c>
       <c r="B12" s="1">
-        <v>647.29373616828411</v>
+        <v>-21.990848899680397</v>
       </c>
       <c r="C12" s="1">
-        <v>135.5688945957173</v>
+        <v>60.449932908935246</v>
       </c>
       <c r="D12" s="1">
-        <v>1097.754104762264</v>
+        <v>50.179420690060859</v>
       </c>
       <c r="E12" s="1">
-        <v>1880.6167355262655</v>
+        <v>88.638504699315718</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2021</v>
+        <v>44834</v>
       </c>
       <c r="B13" s="1">
-        <v>-42.94874772060313</v>
+        <v>-211.64866738028053</v>
       </c>
       <c r="C13" s="1">
-        <v>92.403278655041447</v>
+        <v>169.6851080692422</v>
       </c>
       <c r="D13" s="1">
-        <v>78.661795086306626</v>
+        <v>-73.025590623547103</v>
       </c>
       <c r="E13" s="1">
-        <v>128.11632602074494</v>
+        <v>-114.98914993458543</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2022</v>
+        <v>45199</v>
       </c>
       <c r="B14" s="1">
-        <v>105.19000000000001</v>
+        <v>-88.66</v>
       </c>
       <c r="C14" s="1">
-        <v>233.02</v>
+        <v>219.96000000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-123.83999999999999</v>
+        <v>-97.26</v>
       </c>
       <c r="E14" s="1">
-        <v>214.37000000000003</v>
+        <v>34.040000000000035</v>
       </c>
     </row>
   </sheetData>
